--- a/Schedule Calculator Pro/bin/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B78536-64BF-40F7-945A-1B0D8DB4D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D13144B-532A-4DE4-8E03-CE735EE75030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{0FD5044C-DAB3-4A46-955C-F0C1D1680271}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{19E0AD69-73A1-4137-815F-00F5FEAF4D29}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD600F6F-A458-42C4-8074-CD6AEAC384A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9B768-E594-49B5-8A8B-1EDCB2C874C4}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -957,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <v>218</v>
+        <v>412</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="13">
-        <v>416</v>
+        <v>202</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>7</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="13">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>411</v>
+        <v>200</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>3</v>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>39</v>
       </c>
       <c r="P5" s="16">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>14</v>
@@ -1252,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>14</v>
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>413</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="S6" s="18">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
@@ -1344,7 +1344,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="16" t="s">
@@ -1427,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="16">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>7</v>
@@ -1445,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="16">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>413</v>
+        <v>211</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>15</v>
@@ -1627,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="13">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>17</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="P10" s="13">
-        <v>409</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>14</v>
@@ -1707,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>112</v>
+        <v>717</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="16">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>19</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="16">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>6</v>
@@ -1888,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>17</v>
@@ -1982,7 +1982,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>19</v>
@@ -2068,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="19">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -2222,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="13">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>19</v>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>5</v>
@@ -2249,7 +2249,7 @@
         <v>43</v>
       </c>
       <c r="M17" s="13">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>17</v>
@@ -2267,7 +2267,7 @@
         <v>36</v>
       </c>
       <c r="S17" s="15">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2326,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="16">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="16">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>17</v>
@@ -2429,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="M19" s="16">
-        <v>215</v>
+        <v>409</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2438,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2515,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="M20" s="16">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="16">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>9</v>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="16">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="M21" s="16">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>5</v>
@@ -2618,7 +2618,7 @@
         <v>43</v>
       </c>
       <c r="P21" s="16">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>29</v>
@@ -2692,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="16">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2780,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="16">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>6</v>
@@ -2789,7 +2789,7 @@
         <v>43</v>
       </c>
       <c r="M23" s="16">
-        <v>409</v>
+        <v>109</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="19">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="13">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>19</v>
@@ -2971,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="13">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>19</v>
@@ -3059,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>22</v>
@@ -3068,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="16">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>29</v>
@@ -3077,7 +3077,7 @@
         <v>30</v>
       </c>
       <c r="M26" s="16">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="N26" s="16" t="s">
         <v>6</v>
@@ -3086,7 +3086,7 @@
         <v>43</v>
       </c>
       <c r="P26" s="16">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="16" t="s">
         <v>17</v>
@@ -3095,7 +3095,7 @@
         <v>36</v>
       </c>
       <c r="S26" s="18">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
@@ -3165,7 +3165,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>29</v>
@@ -3186,7 +3186,7 @@
         <v>18</v>
       </c>
       <c r="P27" s="16">
-        <v>416</v>
+        <v>211</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -3259,7 +3259,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="19">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>19</v>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="M29" s="13">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>22</v>
@@ -3382,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="P29" s="13">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>19</v>
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="16">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>24</v>
@@ -3562,7 +3562,7 @@
         <v>45</v>
       </c>
       <c r="P31" s="16">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="16" t="s">
         <v>19</v>
@@ -3636,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="J32" s="16">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
@@ -3646,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="P32" s="16">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
